--- a/scripts/excelread/steampunk_lang_vol.1.02.xlsx
+++ b/scripts/excelread/steampunk_lang_vol.1.02.xlsx
@@ -755,10 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;h3&gt;Välkommen till SILK DYNASTY men RÖRLIG MULTIPLIKATOR Gratisspels-funktion.&lt;/h3&gt;&lt;h4&gt;Om spelet&lt;/h4&gt;SILK DYNASTY är en videoslot med 5 hjul, 5 rader och 40 fasta vinstlinjer. Den här slotten har 10 vanliga symboler, en staplad Wild-symbol som ersätter alla vanliga symboler och en Scatter-symbol. Tre Scatter-symboler belönas med 12 Gratisspel i den RÖRLIGA MULTIPLIKATOR Gratisspels-funktionen med Multiplikatorna satt på x5 som ökas för varje vinst som går igenom dem. Multiplikatorerna rör sig upp och ner på sina repektive hjul varje gratisspel. Alla vinster som går igenom en Multiplikator-position multipliceras.&lt;h4&gt;Återgå till spelaren&lt;/h4&gt;Den totala teoretiska RTP till spelaren är 96.46%&lt;h4&gt;SPELREGLER&lt;/h4&gt;Välj ditt myntvärde. Spelas på 40 rader.&lt;br /&gt;Den totala insatsen är 20 gånger myntvärdet.&lt;br /&gt;Vinnande kombinationer och utbetalningar görs enligt utbetalningstabellen.&lt;br /&gt;Högst vinst endast på varje linje.&lt;br /&gt;Alla vinster börjar från hjulet längst till vänster och betalar från vänster till höger på angränsade hjul, förutom Scatters som betalar vart som helst.&lt;br /&gt;Vinst på spelade linjer, utom på scatters.&lt;br /&gt;Vinster på andra linjer läggs till.&lt;br /&gt;Vinst på linjer är gångrade med myntvärdet.&lt;br /&gt;Scatter-vinster läggs till i linje-vinster.&lt;br /&gt;Scattervinster multipliceras med den totala satsningen.&lt;br /&gt;SCATTER-symboler kan bara dyka upp på hjul 2, 3, och 4&lt;br /&gt;Wild visas endast på hjulen 2,3 och 4 och ersätter alla symboler, utom "Scatter"-symboler&lt;br /&gt;Om ett avbrutet spel inte är klart inom 90 dagar måste det avslutas Spelet måste tydligt ange vad som kommer hända med spelets satsning om ett spel avslutas innan det är klart.&lt;h4&gt;RÖRLIG MULTIPLIKATOR Gratisspels-funktion&lt;/h4&gt;3 SCATTER-symboler belönas med RÖRLIG MULTIPLIKATOR Gratisspels-funktionen&lt;br /&gt;12 gratisspel utdelas.&lt;br /&gt;De utlösande SCATTER-symbolernas positioner blir de Rörliga Multiplikatorernas startpositioner.&lt;br /&gt;Varje Rörlig Multiplikator börjar med en x5 multiplikator&lt;br /&gt;De Rörliga Multiplikatorerna flyttar sig till en slumpmässig position på sina hjul varje Gratisspel&lt;br /&gt;Alla vinster som går igenom en Multiplikator-position multipliceras med det visade värdet.&lt;br /&gt;Varje vinst som går igenom en Rörlig Vinstmultiplikator ökar multiplikatorn med 1 för de resterande gratisspelen&lt;br /&gt;Gratisspels-funktionen kan utlösas igen under gratisspel.&lt;br /&gt;Myntvärdet är detsamma som spelet som utlöste Gratisspels-funktionen.&lt;h4&gt;Hur man spelar&lt;/h4&gt;Välj myntvärde.&lt;br /&gt;Tryck på spin knappen för att starta spelet.&lt;h4&gt;Autospelalternativ&lt;/h4&gt;Antal snurr: Autospel-sessionen avbryts när det valda antalet snurr har uppnåtts.&lt;br /&gt;Förlustgräns: Autospel-sessionen avslutas om din totala förlust för Autospin-sessionen är lika med eller överskrider den valda gränsen.&lt;br /&gt;Enkel vinstgräns: Autospel-sessionen kommer att avslutas om vinsten på en enda snurr är lika med eller överskrider den valda gränsen.&lt;h4&gt;Hur man beräknar vinster&lt;/h4&gt;Varje symbols betalning anges i betalstabell.&lt;br /&gt;Multiplicera vinsten med myntvärdet för att få vinsten i ditt lands valuta.&lt;h4&gt;Spelalternativ&lt;/h4&gt;Klicka på alternativen för att utöka eller förstöra alternativ panel.&lt;br /&gt;Volym - Slå på eller stäng av ljudet.&lt;br /&gt;PAYTABLE- Förklarar huvudfunktionerna i spelet, visar alla utbetalningar (ändras beroende på ifall det är kontanter eller mynt) samt visar raderna och sätten att vinna.&lt;br /&gt;Inställningar - Volym, ljud och musik&lt;br /&gt;Spelregler - Öppna spelets regler.&lt;br /&gt;Historik - Om den här funktionen är aktiverad på din spelwebbplats kan du granska och titta på dina senaste 10 spelrundor.&lt;br /&gt;Hemknapp- tillbaka till startsida.&lt;h4&gt;Spelpanel&lt;/h4&gt;Satsning- är alltid 20 mynt per snurr.&lt;br /&gt;Myntvärde - Ändrar den totala insatsen genom att ändra myntvärdet. För att omvandla myntvärdet till rätt valuta, multiplicera myntbeloppet (20) med myntvärdet.&lt;br /&gt;Total insats - Visar den totala insatsen vid det valda myntvärdet Multipliserat med insatsen Klicka på fältet växlar mellan mynt och kontantvy.&lt;br /&gt;Max Insats - Ställer in myntvärdet till det största tillgängliga. Om du trycker på knappen en gång återgår den till sitt ursprungliga värde (endast skrivbord).&lt;br /&gt;Snurrknapp - Startar spelet.&lt;br /&gt;Autospel-knapp - Visar alternativen för autoplay. Om Autoplay är aktiverat, stoppa Autoplay genom att klicka på knappen.&lt;br /&gt;Win - Visar vinsten för det aktuella eller sista utbetalning steget. Klicka på fältet för att växla mellan mynt- och kontanter.&lt;br /&gt;Saldo - Visar spelarens kontosaldo. Klicka på fältet för att växla mellan mynt- och kontanter.&lt;br /&gt;Stoppknapp- stoppa spelet &lt;h4&gt;keybord genvägar&lt;/h4&gt;Mellanslagstangent - Tryck på mellanslagstangenten för att snurra.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;Willkommen zu SILK DYNASTY, dem Video Slot mit dem BEWEGLICHEN MILTIPLIKATOR Freispiel Feature.&lt;/h3&gt;&lt;h4&gt;Über das Spiel&lt;/h4&gt;SILK DYNASTY ist ein 5 Walzen und 5 Reihen Video Slot mit 40 fixierten Gewinnlinien. Dieser Slot hat 10 reguläre Symbole, ein stapelndes Wild Symbol, weclhes alle regulären Symbole ersetzt, und ein Scatter Symbol. 3 Scatter Symbole aktivieren das Beweglicher Multiplikator Freispiel Feature mit 12 Freispielen und einem Multiplikator, der in Position x5 beginnt und mit jedem durchlaufenden Gewinn steigt. Die Position des Multiplikators bewegt sich in jeder Freispiel-Runde auf der jeweiligen Walze hoch oder runter. Jeder Gewinn, der durch einen beweglichen Multiplikator führt, wird multipliziert. &lt;h4&gt;Zurück zum Spieler&lt;/h4&gt;Der theoretische Gesamt-RTP liegt bei 96.46%&lt;h4&gt;REGELN&lt;/h4&gt;Wählen Sie Ihren Münzwert. Es werden 40 Linien gespielt.&lt;br /&gt;Der Gesamteinsatz entspricht dem 20fachen des Münzwertes.&lt;br /&gt;Gewinnkombinationen und Gewinnauszahlungen erfolgen gemäß dem Paytable. &lt;br /&gt;Nur der höchste Gewinn auf jeder Linie.&lt;br /&gt;Alle Gewinne beginnen auf der linken Walze und werden, mit Außnahme von Scatter Symbolen, die überall zählen, von links nach rechts auf aufeinanderfolgenden Walzen gezählt.&lt;br /&gt;Alle Gewinne nur auf gespielten Linien, außer Scattern.&lt;br /&gt;Gewinne auf verschiedenen Linien werden addiert.&lt;br /&gt;Linien-Gewinne werden mit dem Münzwert multipliziert&lt;br /&gt;Scatter-Gewinne werden zu den Linien-Gewinnen addiert.&lt;br /&gt;Scatter-Gewinne werden mit dem Gesamteinsatz multipliziert&lt;br /&gt;SCATTER erscheinen nur auf den Walzen 2,3 und 4. &lt;br /&gt;WILD erscheinen ausschließlich auf den Walzen 2,3,4 und 5 und ersetzen alle Symbole mit Ausnahme des Scatter Symbols. &lt;br /&gt;&lt;h4&gt;BEWEGLICHER MULTIPLIKATOR Freispiele&lt;/h4&gt;3 SCATTER aktivieren das BEWEGLICHER MULTIPLIKATOR Feature.&lt;br /&gt;12 Freispiele werden aktiviert. &lt;br /&gt;Die Positionen, auf welchen die auslösenden Scatter Symbole erscheinen, bestimmen die Anfangspositionen der beweglichen Multiplikatoren. &lt;br /&gt;Jeder bewegliche Multiplikator beginnt mit 5x. &lt;br /&gt;In jedem Freispiel bewegen sich die beweglichen Multiplikatoren in eine zufällige Reihe auf der jeweiligen Walze. &lt;br /&gt;Gewinne, die durch einen beweglichen Multiplikator führen, werden mit dem angezeigten Wert multipliziert. &lt;br /&gt;In jeder Runde, in welcher ein Gewinn durch einen der beweglichen Multiplikatoren führt, wird der Multiplikator Wert für die verbleibenden Runden um 1 erhöht. &lt;br /&gt;Freispiele können während der Freispielrunde erneut ausgelöst werden.&lt;br /&gt;Münzwert der Freispiele ist identisch zu dem in der Auslöserrunde. &lt;h4&gt;Spielanleitung&lt;/h4&gt;Wählen Sie den Münzwert&lt;br /&gt;Drücken Sie den Spin-Button um das Spiel zu starten. &lt;h4&gt;Autospin Optionen&lt;/h4&gt;Spinanzahl: Die Autoplay Runde wird nach erreichen der gewählten Spinanzahl beendet. &lt;br /&gt;Verlustlimit: Die Autoplay Runde wird nach erreichen des gewählten Verlustlimits beendet. &lt;br /&gt;Einzelgewinn Limit: Die Autoplay Runde wird beendet, sofern der gewählte Gewinnbetrag in einem einzelnen Gewinn erreicht wird. &lt;h4&gt;Gewinnberechnung&lt;/h4&gt;Die Auszahlung jedes Symbols ist im Paytable festgelegt. &lt;br /&gt;Multiplizieren Sie den Münzgewinn mit dem Münzwert, um den Gewinnbetrag in Ihrer Währung zu erhalten. &lt;h4&gt;Spieloptionen&lt;/h4&gt;Klicken Sie auf die Optionen, um das Optionsmenü zu öffnen oder schließen. &lt;br /&gt;Lautstärke: Schaltet den Ton des Spiels an oder aus. &lt;br /&gt;Paytable: Erklärt die Hauptfeatures des Spiels, zeigt alle Auszahlungen an (Änderungen hängen von Anzeige in Münzwert oder Geldwert ab) und zeigt alle Gewinnlinien oder Wege zum Gewinn.&lt;br /&gt;Einstellungen - Lautstärke, Sound und Musik &lt;br /&gt;Regeln: Öffnet die Spielregeln&lt;br /&gt;Spielhistorie: Sofern dies auf Ihrer Gaming-Webseite aktiv ist, können Sie die letzten 10 Runden erneut einsehen und abspielen.  &lt;br /&gt;Home Button: Zurück zur Lobby&lt;h4&gt;Bedienungsfeld&lt;/h4&gt;Einsatz: Der Einsatz beträgt stets 20 Münzen pro Linie. &lt;br /&gt;Münzwert - Ändert den Gesamteinsatz durch Änderung des Münzwertes. Um einen Münzgewinn oder Münzeinsatz in die eigene Währrung umzurechnen, multiplizieren Sie die Münzanzahl (20) mit dem Münzwert. &lt;br /&gt;Gesamteinsatz: Zeigt den gesamten Einsatz basierend auf dem gewählten Münzwert. Durch klicken auf das Feld wechseln Sie zwischen Münzwert- und Geldwertanzeige. &lt;br /&gt;Max Bet: Setzt den Münzwert auf den höchstmöglichen Betrag. Durch klicken auf das Feld wechseln Sie zwischen Münzwert- und Geldwertanzeige. &lt;br /&gt;Spin Button: Startet das Spiel&lt;br /&gt;Autoplay Button: Öffnet die Autoplay Optionen. Ist Autoplay aktiv, stoppt ein Klick auf den Button die Spins. &lt;br /&gt;Gewinn: Zeigt den aktuellen oder letzten Gewinn an. Durch klicken auf das Feld wechseln Sie zwischen Münzwert- und Geldwertanzeige. &lt;br /&gt;Guthaben: Zeigt den aktuellen Spielkontostand. Durch klicken auf das Feld wechseln Sie zwischen Münzwert- und Geldwertanzeige. &lt;br /&gt;Stopp Button: Stoppt das Spiel&lt;h4&gt;Tastaturkürzel&lt;/h4&gt;Leertaste: Drücken Sie die Leertaste um zu drehen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,6 +777,9 @@
   </si>
   <si>
     <t>&lt;h3&gt;Willkommen zu SILK DYNASTY, dem Video Slot mit dem BEWEGLICHEN MILTIPLIKATOR Freispiel Feature.&lt;/h3&gt;&lt;h4&gt;Über das Spiel&lt;/h4&gt;SILK DYNASTY ist ein 5 Walzen und 5 Reihen Video Slot mit 40 fixierten Gewinnlinien. Dieser Slot hat 10 reguläre Symbole, ein stapelndes Wild Symbol, weclhes alle regulären Symbole ersetzt, und ein Scatter Symbol. 3 Scatter Symbole aktivieren das Beweglicher Multiplikator Freispiel Feature mit 12 Freispielen und einem Multiplikator, der in Position x5 beginnt und mit jedem durchlaufenden Gewinn steigt. Die Position des Multiplikators bewegt sich in jeder Freispiel-Runde auf der jeweiligen Walze hoch oder runter. Jeder Gewinn, der durch einen beweglichen Multiplikator führt, wird multipliziert. &lt;h4&gt;Zurück zum Spieler&lt;/h4&gt;Der theoretische Gesamt-RTP liegt bei 96.46%&lt;br /&gt;Der maximale, aufgezeichnete Gewinn lag bei 44100x dem Einsatz und kam ein Mal in 1.000.000.000 simulierten Spielrunden vor. &lt;h4&gt;REGELN&lt;/h4&gt;Wählen Sie Ihren Einsatz. 40 Linien werden gespielt. &lt;br /&gt;Gewinnkombinationen und Gewinnauszahlungen erfolgen gemäß dem Paytable. &lt;br /&gt;Nur der höchste Gewinn auf jeder Linie.&lt;br /&gt;Alle Gewinne beginnen auf der linken Walze und werden, mit Außnahme von Scatter Symbolen, die überall zählen, von links nach rechts auf aufeinanderfolgenden Walzen gezählt.&lt;br /&gt;Alle Gewinne nur auf gespielten Linien, außer Scattern.&lt;br /&gt;Gewinne auf verschiedenen Linien werden addiert.&lt;br /&gt;Scatter-Gewinne werden zu den Linien-Gewinnen addiert.&lt;br /&gt;SCATTER erscheinen nur auf den Walzen 2,3 und 4. &lt;br /&gt;WILD erscheinen ausschließlich auf den Walzen 2,3,4 und 5 und ersetzen alle Symbole mit Ausnahme des Scatter Symbols. &lt;h4&gt;BEWEGLICHER MULTIPLIKATOR Freispiele&lt;/h4&gt;3 SCATTER aktivieren das BEWEGLICHER MULTIPLIKATOR Feature.&lt;br /&gt;12 Freispiele werden aktiviert. &lt;br /&gt;Die Positionen, auf welchen die auslösenden Scatter Symbole erscheinen, bestimmen die Anfangspositionen der beweglichen Multiplikatoren. &lt;br /&gt;Jeder bewegliche Multiplikator beginnt mit 5x. &lt;br /&gt;In jedem Freispiel bewegen sich die beweglichen Multiplikatoren in eine zufällige Reihe auf der jeweiligen Walze. &lt;br /&gt;Gewinne, die durch einen beweglichen Multiplikator führen, werden mit dem angezeigten Wert multipliziert. &lt;br /&gt;In jeder Runde, in welcher ein Gewinn durch einen der beweglichen Multiplikatoren führt, wird der Multiplikator Wert für die verbleibenden Runden um 1 erhöht. &lt;br /&gt;Freispiele können während der Freispielrunde erneut ausgelöst werden.&lt;br /&gt;Der Einsatzwert ist der selbe, wie in der Runde, in welcher das Freispiel-Feature ausgelöst wurde. &lt;h4&gt;Spielanleitung&lt;/h4&gt;Wetteinsatz auswählen&lt;br /&gt;Drücken Sie den Spin-Button um das Spiel zu starten. &lt;h4&gt;Gewinnberechnung&lt;/h4&gt;Die Auszahlung jedes Symbols ist im Paytable festgelegt. &lt;h4&gt;Spieloptionen&lt;/h4&gt;Klicken Sie auf die Optionen, um das Optionsmenü zu öffnen oder schließen. &lt;br /&gt;Lautstärke: Schaltet den Ton des Spiels an oder aus. &lt;br /&gt;Gewinntabelle - Erklärt die Hauptfunktionen im Spiel, zeigt alle Gewinne, Gewinnlinienund Wege zum Gewinn an. &lt;br /&gt;Einstellungen - Lautstärke, Sound und Musik &lt;br /&gt;Regeln: Öffnet die Spielregeln&lt;br /&gt;Spielhistorie: Sofern dies auf Ihrer Gaming-Webseite aktiv ist, können Sie die letzten 10 Runden erneut einsehen und abspielen.  &lt;br /&gt;Home Button: Zurück zur Lobby&lt;h4&gt;Bedienungsfeld&lt;/h4&gt;Einsatz: Der Einsatz beträgt stets 20 Münzen pro Linie. &lt;br /&gt;Einsatzhöhe - Ändert den Gesamteinsatz durch das Ändern der Einsatzhöhe. &lt;br /&gt;Gesamteinsatz - Zeigt den gesamten Einsatz entsprechend der gewählten Einsatzhöhe multipliziert mit dem Einsatz an. &lt;br /&gt;Max Bet - Setzt die Einsatzhöhe automatisch auf den höchstmöglichen Betrag. Erneutes drücken des Buttons setzte den Betrag auf den Originalbetrag zurück (nur in der Desktopversion). &lt;br /&gt;Spin Button: Startet das Spiel&lt;br /&gt;Gewinn: Zeigt den aktuellen oder letzten Gewinn an.&lt;br /&gt;Guthaben: Zeigt den aktuellen Spielkontostand. &lt;br /&gt;Stopp Button: Stoppt das Spiel&lt;h4&gt;Tastaturkürzel&lt;/h4&gt;Leertaste: Drücken Sie die Leertaste um zu drehen</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Välkommen till SILK DYNASTY men RÖRLIG MULTIPLIKATOR Gratisspels-funktion.&lt;/h3&gt;&lt;h4&gt;Om spelet&lt;/h4&gt;SILK DYNASTY är en videoslot med 5 hjul, 5 rader och 40 fasta vinstlinjer. Den här slotten har 10 vanliga symboler, en staplad Wild-symbol som ersätter alla vanliga symboler och en Scatter-symbol. Tre Scatter-symboler belönas med 12 Gratisspel i den RÖRLIGA MULTIPLIKATOR Gratisspels-funktionen med Multiplikatorna satt på x5 som ökas för varje vinst som går igenom dem. Multiplikatorerna rör sig upp och ner på sina repektive hjul varje gratisspel. Alla vinster som går igenom en Multiplikator-position multipliceras.&lt;h4&gt;Återgå till spelaren&lt;/h4&gt;Den totala teoretiska RTP till spelaren är 96.46%&lt;h4&gt;SPELREGLER&lt;/h4&gt;Välj ditt myntvärde. Spelas på 40 rader.&lt;br /&gt;Den totala insatsen är 20 gånger myntvärdet.&lt;br /&gt;Vinnande kombinationer och utbetalningar görs enligt utbetalningstabellen.&lt;br /&gt;Högst vinst endast på varje linje.&lt;br /&gt;Alla vinster börjar från hjulet längst till vänster och betalar från vänster till höger på angränsade hjul, förutom Scatters som betalar vart som helst.&lt;br /&gt;Vinst på spelade linjer, utom på scatters.&lt;br /&gt;Vinster på andra linjer läggs till.&lt;br /&gt;Vinst på linjer är gångrade med myntvärdet.&lt;br /&gt;Scatter-vinster läggs till i linje-vinster.&lt;br /&gt;Scattervinster multipliceras med den totala satsningen.&lt;br /&gt;SCATTER-symboler kan bara dyka upp på hjul 2, 3, och 4&lt;br /&gt;WILD visas endast på hjulen 2,3,4 och 5 och ersätter alla symboler utom SCATTER&lt;br /&gt;Om ett avbrutet spel inte är klart inom 90 dagar måste det avslutas Spelet måste tydligt ange vad som kommer hända med spelets satsning om ett spel avslutas innan det är klart.&lt;h4&gt;RÖRLIG MULTIPLIKATOR Gratisspels-funktion&lt;/h4&gt;3 SCATTER-symboler belönas med RÖRLIG MULTIPLIKATOR Gratisspels-funktionen&lt;br /&gt;12 gratisspel utdelas.&lt;br /&gt;De utlösande SCATTER-symbolernas positioner blir de Rörliga Multiplikatorernas startpositioner.&lt;br /&gt;Varje Rörlig Multiplikator börjar med en x5 multiplikator&lt;br /&gt;De Rörliga Multiplikatorerna flyttar sig till en slumpmässig position på sina hjul varje Gratisspel&lt;br /&gt;Alla vinster som går igenom en Multiplikator-position multipliceras med det visade värdet.&lt;br /&gt;Varje vinst som går igenom en Rörlig Vinstmultiplikator ökar multiplikatorn med 1 för de resterande gratisspelen&lt;br /&gt;Gratisspels-funktionen kan utlösas igen under gratisspel.&lt;br /&gt;Myntvärdet är detsamma som spelet som utlöste Gratisspels-funktionen.&lt;h4&gt;Hur man spelar&lt;/h4&gt;Välj myntvärde.&lt;br /&gt;Tryck på spin knappen för att starta spelet.&lt;h4&gt;Autospelalternativ&lt;/h4&gt;Antal snurr: Autospel-sessionen avbryts när det valda antalet snurr har uppnåtts.&lt;br /&gt;Förlustgräns: Autospel-sessionen avslutas om din totala förlust för Autospin-sessionen är lika med eller överskrider den valda gränsen.&lt;br /&gt;Enkel vinstgräns: Autospel-sessionen kommer att avslutas om vinsten på en enda snurr är lika med eller överskrider den valda gränsen.&lt;h4&gt;Hur man beräknar vinster&lt;/h4&gt;Varje symbols betalning anges i betalstabell.&lt;br /&gt;Multiplicera vinsten med myntvärdet för att få vinsten i ditt lands valuta.&lt;h4&gt;Spelalternativ&lt;/h4&gt;Klicka på alternativen för att utöka eller förstöra alternativ panel.&lt;br /&gt;Volym - Slå på eller stäng av ljudet.&lt;br /&gt;PAYTABLE- Förklarar huvudfunktionerna i spelet, visar alla utbetalningar (ändras beroende på ifall det är kontanter eller mynt) samt visar raderna och sätten att vinna.&lt;br /&gt;Inställningar - Volym, ljud och musik&lt;br /&gt;Spelregler - Öppna spelets regler.&lt;br /&gt;Historik - Om den här funktionen är aktiverad på din spelwebbplats kan du granska och titta på dina senaste 10 spelrundor.&lt;br /&gt;Hemknapp- tillbaka till startsida.&lt;h4&gt;Spelpanel&lt;/h4&gt;Satsning- är alltid 20 mynt per snurr.&lt;br /&gt;Myntvärde - Ändrar den totala insatsen genom att ändra myntvärdet. För att omvandla myntvärdet till rätt valuta, multiplicera myntbeloppet (30) med myntvärdet.&lt;br /&gt;Total insats - Visar den totala insatsen vid det valda myntvärdet Multipliserat med insatsen Klicka på fältet växlar mellan mynt och kontantvy.&lt;br /&gt;Max Insats - Ställer in myntvärdet till det största tillgängliga. Om du trycker på knappen en gång återgår den till sitt ursprungliga värde (endast skrivbord).&lt;br /&gt;Snurrknapp - Startar spelet.&lt;br /&gt;Autospel-knapp - Visar alternativen för autoplay. Om Autoplay är aktiverat, stoppa Autoplay genom att klicka på knappen.&lt;br /&gt;Win - Visar vinsten för det aktuella eller sista utbetalning steget. Klicka på fältet för att växla mellan mynt- och kontanter.&lt;br /&gt;Saldo - Visar spelarens kontosaldo. Klicka på fältet för att växla mellan mynt- och kontanter.&lt;br /&gt;Stoppknapp- stoppa spelet &lt;h4&gt;keybord genvägar&lt;/h4&gt;Mellanslagstangent - Tryck på mellanslagstangenten för att snurra.</t>
   </si>
 </sst>
 </file>
@@ -974,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1027,6 +1026,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1383,7 +1383,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2252,7 +2252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
@@ -2260,21 +2260,21 @@
       <c r="C33" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>226</v>
+      <c r="D33" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12" x14ac:dyDescent="0.15">
@@ -2283,30 +2283,30 @@
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>232</v>
-      </c>
       <c r="G34" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:XFD1 B2:XFD7 B9 B10:C10 B8:C8 F8:F10 J8:XFD10 A11:XFD33 A35:XFD1048576 A34:B34 J34:XFD34">
+  <conditionalFormatting sqref="J1:XFD1 B2:XFD7 B9 B10:C10 B8:C8 F8:F10 J8:XFD10 A11:XFD32 A35:XFD1048576 A34:B34 J34:XFD34 A33:C33 E33:XFD33">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"none"</formula>
     </cfRule>
